--- a/medicine/Mort/Face_à_la_mort_II/Face_à_la_mort_II.xlsx
+++ b/medicine/Mort/Face_à_la_mort_II/Face_à_la_mort_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_II</t>
+          <t>Face_à_la_mort_II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Face à la mort II (VO : Faces of Death II) est la suite du film mondo Face à la mort. John Alan Schwartz est crédité sous les noms de « Alan Black » pour le scénario et de « Conan Le Cilaire » pour la production. Schwartz fait une nouvelle apparition, cette fois en tant que drogué devant une droguerie. Dr. Francis B. Gröss (joué par Michael Carr) est le narrateur.
 Ce film relate majoritairement des scènes de cascades qui tournent mal ainsi que des scènes de mort dans le domaine du sport. Certaines scènes relatent plusieurs tentatives d'une voiture fusée propulsée au-dessus du Fleuve Saint-Laurent au Canada. Apparait également la scène du match de boxe, en 1980, entre Johnny Owen et Lupe Pintor, dans laquelle Owen tombe dans le coma et meurt plus tard de ses blessures que lui a infligées son adversaire durant le match.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_II</t>
+          <t>Face_à_la_mort_II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_II</t>
+          <t>Face_à_la_mort_II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Réalisation et scénario : John Alan Schwartz
 Montage : James Roy et Henri Ivon Simoné
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_II</t>
+          <t>Face_à_la_mort_II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michael Carr : Dr. Francis B. Gröss
 James Brady : Lui-même (images d'archives) (non crédité)
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Face_%C3%A0_la_mort_II</t>
+          <t>Face_à_la_mort_II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Série</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Face à la mort II est la suite de Face à la mort et fait partie d'une série de 4 films : Face à la mort I, II, III, IV. La série comporte également des spins-off : The Worst of Faces of Death et Faces of Death: Fact or Fiction ? Ainsi que 3 remake : Face à la mort IV, V, et VI.
 1985 : Face à la mort III : Coécrit par Veronica Lakewood
